--- a/data.xlsx
+++ b/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\虎头虎脑的跑调侠.DESKTOP-LUGQUMT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\虎头虎脑的跑调侠.DESKTOP-LUGQUMT\Desktop\An Improved RRT Algorithm for Regional Trajectory Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10610" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="a.Hazard Value At Time Point 41" sheetId="1" r:id="rId1"/>
@@ -77,15 +77,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>car number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>improved RRT (no predict)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of car</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,15 +425,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.4140625" customWidth="1"/>
-    <col min="4" max="4" width="15.4140625" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -441,7 +441,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -455,7 +455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>42</v>
       </c>
@@ -469,7 +469,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>43</v>
       </c>
@@ -483,7 +483,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>44</v>
       </c>
@@ -497,7 +497,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>45</v>
       </c>
@@ -511,7 +511,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>46</v>
       </c>
@@ -543,15 +543,15 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -559,7 +559,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -573,7 +573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12</v>
       </c>
@@ -587,7 +587,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>13</v>
       </c>
@@ -601,7 +601,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>14</v>
       </c>
@@ -615,7 +615,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>15</v>
       </c>
@@ -629,7 +629,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>16</v>
       </c>
@@ -643,7 +643,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>17</v>
       </c>
@@ -657,7 +657,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>18</v>
       </c>
@@ -671,7 +671,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>19</v>
       </c>
@@ -685,7 +685,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20</v>
       </c>
@@ -699,7 +699,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>21</v>
       </c>
@@ -727,19 +727,19 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.9140625" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="24.75" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.9140625" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -748,7 +748,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -756,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -765,7 +765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -782,7 +782,7 @@
         <v>62.72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30</v>
       </c>
@@ -813,19 +813,19 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
-    <col min="2" max="2" width="13.9140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -834,15 +834,15 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -851,7 +851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -868,7 +868,7 @@
         <v>1509.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Time Point (s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>number of car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM Prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improved RRT (LSTM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improved RRT (LSTM)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -431,9 +443,10 @@
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -441,7 +454,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -454,8 +467,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>42</v>
       </c>
@@ -468,8 +484,11 @@
       <c r="D3">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>43</v>
       </c>
@@ -482,8 +501,11 @@
       <c r="D4">
         <v>2.64</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>44</v>
       </c>
@@ -496,8 +518,11 @@
       <c r="D5">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>45</v>
       </c>
@@ -510,8 +535,11 @@
       <c r="D6">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>46</v>
       </c>
@@ -523,6 +551,9 @@
       </c>
       <c r="D7">
         <v>2.83</v>
+      </c>
+      <c r="E7">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>
@@ -537,10 +568,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -549,9 +580,10 @@
     <col min="2" max="2" width="18.75" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -559,7 +591,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -572,8 +604,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12</v>
       </c>
@@ -586,8 +621,11 @@
       <c r="D3">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>13</v>
       </c>
@@ -600,8 +638,11 @@
       <c r="D4">
         <v>1.49</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>14</v>
       </c>
@@ -614,8 +655,11 @@
       <c r="D5">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>15</v>
       </c>
@@ -628,8 +672,11 @@
       <c r="D6">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>16</v>
       </c>
@@ -642,8 +689,11 @@
       <c r="D7">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>17</v>
       </c>
@@ -656,8 +706,11 @@
       <c r="D8">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>18</v>
       </c>
@@ -670,8 +723,11 @@
       <c r="D9">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>19</v>
       </c>
@@ -684,8 +740,11 @@
       <c r="D10">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20</v>
       </c>
@@ -698,8 +757,11 @@
       <c r="D11">
         <v>1.82</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>21</v>
       </c>
@@ -711,6 +773,9 @@
       </c>
       <c r="D12">
         <v>1.86</v>
+      </c>
+      <c r="E12">
+        <v>1.96</v>
       </c>
     </row>
   </sheetData>
@@ -724,10 +789,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -737,9 +802,10 @@
     <col min="3" max="3" width="24.75" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -748,7 +814,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -764,8 +830,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -781,8 +850,11 @@
       <c r="E3">
         <v>62.72</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>66.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30</v>
       </c>
@@ -797,6 +869,9 @@
       </c>
       <c r="E4">
         <v>68.5</v>
+      </c>
+      <c r="F4">
+        <v>68.400000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -810,10 +885,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -823,9 +898,10 @@
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -834,7 +910,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -850,8 +926,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -867,8 +946,11 @@
       <c r="E3">
         <v>1509.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1487.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30</v>
       </c>
@@ -883,6 +965,9 @@
       </c>
       <c r="E4">
         <v>3318.5</v>
+      </c>
+      <c r="F4">
+        <v>3026.8</v>
       </c>
     </row>
   </sheetData>
